--- a/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-25.12037548062049</v>
+        <v>-24.85078978928481</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.37495637232085</v>
+        <v>-15.17762153274393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.38707770989332</v>
+        <v>-14.14755170732859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-22.87037505175025</v>
+        <v>-22.01271261582989</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-16.23622858596854</v>
+        <v>-16.00514103539416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.37936101634975</v>
+        <v>-20.27058127061625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-22.1222585767154</v>
+        <v>-22.49893053657421</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.75677404379163</v>
+        <v>-14.20899105553375</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.09590412202275</v>
+        <v>-14.72576768417103</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-12.87310902298494</v>
+        <v>-13.38683844815646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.59244440865541</v>
+        <v>-3.013701360840889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.737530181988755</v>
+        <v>-2.265965714652133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.168539005793104</v>
+        <v>-7.250404165636786</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.732006869554806</v>
+        <v>-2.342519254160712</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.100319408623267</v>
+        <v>-7.093319110583705</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-12.8416872625428</v>
+        <v>-13.44282006243277</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.538233439721645</v>
+        <v>-4.447004765428527</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.929154542116397</v>
+        <v>-6.051778431168429</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6628810639378634</v>
+        <v>-0.6643489983403845</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4060508182983345</v>
+        <v>-0.4070318810447421</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3708385566068481</v>
+        <v>-0.3681272054221611</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5593892721352429</v>
+        <v>-0.5554961242187726</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3926012396076604</v>
+        <v>-0.3966568995737947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.491469752630623</v>
+        <v>-0.489288973039082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5796309985173044</v>
+        <v>-0.5871878783936638</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3627877903733972</v>
+        <v>-0.3697654042109529</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3943724686719478</v>
+        <v>-0.3880291353101539</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4125853711986763</v>
+        <v>-0.424191969180393</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1075839577780373</v>
+        <v>-0.1007541122865299</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05271610024120443</v>
+        <v>-0.06654699524099629</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2702105503534714</v>
+        <v>-0.2163310846297233</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05300759612518723</v>
+        <v>-0.06489782085708953</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2236056675060334</v>
+        <v>-0.2223257911991124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3860792802420951</v>
+        <v>-0.396172942373667</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1239048639489957</v>
+        <v>-0.1260771749364364</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1807349833484834</v>
+        <v>-0.1836511729842222</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.61395394815433</v>
+        <v>-18.5405081405814</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.945870163630248</v>
+        <v>-11.13697272064742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.95407142113493</v>
+        <v>-10.86678169287877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-23.17312028295248</v>
+        <v>-23.43255302652972</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-17.72924625710992</v>
+        <v>-17.25065183839568</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.46365277428431</v>
+        <v>-17.20827718731202</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-19.49958920883049</v>
+        <v>-19.93070181536091</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.11657570218742</v>
+        <v>-12.36819031766706</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.8082971200784</v>
+        <v>-12.31350063611275</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.549873803246824</v>
+        <v>-5.754660267706219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.59860798450958</v>
+        <v>2.430233041753118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.74154853272088</v>
+        <v>2.146728922230077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.251701357386874</v>
+        <v>-9.633345576791646</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.433101292813972</v>
+        <v>-3.272579404451907</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.288334718519546</v>
+        <v>-3.431506189740781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-10.12214430388902</v>
+        <v>-10.57388003198932</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.117319563730238</v>
+        <v>-2.474378805874174</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.841341820718665</v>
+        <v>-2.848737656861373</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5492531504268626</v>
+        <v>-0.5481896602102506</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2981991789609941</v>
+        <v>-0.3278306406889823</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.327969679518657</v>
+        <v>-0.3184346932789413</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5117531498661628</v>
+        <v>-0.5138657976259268</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3844571786206341</v>
+        <v>-0.3796262599917558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3508346530506124</v>
+        <v>-0.3587595134656453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5070903297817939</v>
+        <v>-0.5143522996380935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3125589471146216</v>
+        <v>-0.3192836652953854</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3037614723348068</v>
+        <v>-0.3084175342800886</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2074769569499985</v>
+        <v>-0.2077566894166282</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1330432238413957</v>
+        <v>0.09104532319881294</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07036364093163106</v>
+        <v>0.0822324085085608</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2334635916224099</v>
+        <v>-0.2388200285018539</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08862906077046431</v>
+        <v>-0.08741096132749307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08467941914023988</v>
+        <v>-0.08540844302537026</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2955509753551951</v>
+        <v>-0.3075997604200323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09031562842108644</v>
+        <v>-0.07003079854418737</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08458907699795258</v>
+        <v>-0.08277289946775696</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-4.82340586850315</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.925871632639467</v>
+        <v>-4.925871632639462</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-18.20725035000252</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-26.78452123585299</v>
+        <v>-27.10225905300954</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.30920931487173</v>
+        <v>-15.2391324957135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.6158140133314</v>
+        <v>-15.30066426754333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-21.80171753826652</v>
+        <v>-21.06550594563295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.04620693853345</v>
+        <v>-15.46534347429222</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.58290584129786</v>
+        <v>-14.4444524446343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-23.06920759572464</v>
+        <v>-23.14562623810847</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.96118922167515</v>
+        <v>-14.00341197162434</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.40717528959357</v>
+        <v>-13.27112522014113</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-15.12538094947365</v>
+        <v>-15.37957633473558</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.950416842771655</v>
+        <v>-3.40775363771039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.146968495634299</v>
+        <v>-3.224530554556536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.276810320642161</v>
+        <v>-1.718578856409286</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.422809366358917</v>
+        <v>6.898393346887333</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.359444310754276</v>
+        <v>4.975633268955548</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-13.29749524076526</v>
+        <v>-13.28190467728681</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.061417850464182</v>
+        <v>-3.313290685489038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.738447409876626</v>
+        <v>-2.694388745268278</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1034375246276189</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1056348941400102</v>
+        <v>-0.1056348941400101</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3922437976153542</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5401705974726647</v>
+        <v>-0.5473664237537261</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3110393918966676</v>
+        <v>-0.3142903670753693</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3157666137530645</v>
+        <v>-0.3157701358632164</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4127747059571002</v>
+        <v>-0.4095828615757864</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3076826510662893</v>
+        <v>-0.3046975605743761</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2824718141470897</v>
+        <v>-0.2831922481255942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4669387114439468</v>
+        <v>-0.4735638377780482</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2803111692676087</v>
+        <v>-0.2855056823682398</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2732480427524211</v>
+        <v>-0.2738065747991666</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3502377677105062</v>
+        <v>-0.3533805080741705</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.08910333389607177</v>
+        <v>-0.07939485944174729</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.070519308720718</v>
+        <v>-0.07139107928216801</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.05389200711987796</v>
+        <v>-0.02418032036744351</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.130646196528895</v>
+        <v>0.1825224004871441</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1363801920025431</v>
+        <v>0.1226691895338469</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3024873083458188</v>
+        <v>-0.3041990421001805</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06822850850916279</v>
+        <v>-0.07333057359815193</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05888773080038513</v>
+        <v>-0.06470955147622272</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-8.44223652790591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-9.092350509371633</v>
+        <v>-9.092350509371638</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-16.58234761405456</v>
@@ -1297,7 +1297,7 @@
         <v>-4.67252514269939</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-6.874161410042484</v>
+        <v>-6.874161410042495</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-19.69371104741257</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-25.80214118141572</v>
+        <v>-25.52951563820553</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.01437352264664</v>
+        <v>-12.28128983115802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.99056922400264</v>
+        <v>-13.14359821110852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-21.45788986104164</v>
+        <v>-21.79001146963563</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.552601909996918</v>
+        <v>-9.987004596250161</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.38650468618399</v>
+        <v>-12.10116751170235</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-23.02699138216627</v>
+        <v>-22.37724025073017</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.988530611499824</v>
+        <v>-10.2023165335441</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.01563097636578</v>
+        <v>-11.30598598054072</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-17.48860759874019</v>
+        <v>-17.78293987256113</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.936312694442367</v>
+        <v>-4.243383379673577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.719260099148038</v>
+        <v>-5.208380787500939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-10.59239983896877</v>
+        <v>-11.088105402872</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.53208193644024</v>
+        <v>0.1937135176476804</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.316416032782043</v>
+        <v>-2.637646541024922</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-16.57994422291864</v>
+        <v>-16.51631465062114</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.60569409812269</v>
+        <v>-3.969313326795884</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.899568023124702</v>
+        <v>-4.836252593285877</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1794581703819995</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1932777625324856</v>
+        <v>-0.1932777625324857</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3501028052194591</v>
@@ -1402,7 +1402,7 @@
         <v>-0.09865093881707164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1451340455043549</v>
+        <v>-0.1451340455043552</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4175848725444043</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5238044829521492</v>
+        <v>-0.5225385303283366</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2477917272424615</v>
+        <v>-0.2521288346577411</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2657258096703117</v>
+        <v>-0.2701998489399307</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4322629268293552</v>
+        <v>-0.4354484665198678</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1923733543215408</v>
+        <v>-0.1979914404880131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2265888210972113</v>
+        <v>-0.2387175180133109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4688808755855323</v>
+        <v>-0.4656677567612173</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2064950744365769</v>
+        <v>-0.2091477480637553</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2282102341914088</v>
+        <v>-0.2312716970814191</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3850542034029899</v>
+        <v>-0.391560849465212</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.08940278223116958</v>
+        <v>-0.09463668365034922</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1058979104814744</v>
+        <v>-0.1146313720878325</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2411668567478255</v>
+        <v>-0.2489101421909297</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03190729231747511</v>
+        <v>0.005182060591211105</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.05135838976430354</v>
+        <v>-0.0563412121726081</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3610999118323457</v>
+        <v>-0.3656459784553772</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08062174560614968</v>
+        <v>-0.08777352838529227</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1090220475654415</v>
+        <v>-0.1051089880995787</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-10.01425412421357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-6.659802572190182</v>
+        <v>-6.659802572190188</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-17.20610930220078</v>
@@ -1520,7 +1520,7 @@
         <v>-8.090180096631499</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-7.703180353650185</v>
+        <v>-7.703180353650191</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-30.3201769045381</v>
+        <v>-29.60384379904514</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.70056009225728</v>
+        <v>-16.71743207966246</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.7525634172731</v>
+        <v>-13.28154772173151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-23.15177609679111</v>
+        <v>-22.76294444782632</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.76726898799591</v>
+        <v>-12.27217130147845</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.48516869034201</v>
+        <v>-13.40301905179546</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-23.92570716061591</v>
+        <v>-23.76538455017057</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-12.44633496821245</v>
+        <v>-12.4367579280451</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.84973452896442</v>
+        <v>-12.3541486034258</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-16.69883281581052</v>
+        <v>-15.85313801486271</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.97235834354523</v>
+        <v>-3.031856840765734</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7109419707931992</v>
+        <v>0.9174547213179882</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-11.4029466379584</v>
+        <v>-11.55269401554332</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3396335361419381</v>
+        <v>-0.4861102013874104</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.949119697431877</v>
+        <v>-2.847713702099355</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-15.0686930365804</v>
+        <v>-14.82656029128586</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.505361398363804</v>
+        <v>-3.531297782142275</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.372483195926992</v>
+        <v>-3.918660264093093</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1969294451427429</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1309644441846655</v>
+        <v>-0.1309644441846656</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.3185019570120237</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1531893310601287</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1458614062130127</v>
+        <v>-0.1458614062130128</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5496842145181132</v>
+        <v>-0.5397974344709883</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2982073099508985</v>
+        <v>-0.3041615489246741</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2484886647605106</v>
+        <v>-0.2482584949560391</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3990309761479913</v>
+        <v>-0.4009446219417124</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2049980085440091</v>
+        <v>-0.2128244899107658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2358701558156506</v>
+        <v>-0.2334140448675146</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4343178425979839</v>
+        <v>-0.4305206387262761</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2246090507357511</v>
+        <v>-0.2224451784977904</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2159517980541667</v>
+        <v>-0.2215645815272786</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3479730490116908</v>
+        <v>-0.3406478568827035</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06034522804203973</v>
+        <v>-0.06428427593609001</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01606370032163874</v>
+        <v>0.01327194921144633</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2259861344267399</v>
+        <v>-0.2276093203204869</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.007157218354724343</v>
+        <v>-0.009735783729617956</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.0580196202281113</v>
+        <v>-0.05553110251388228</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3022408158154383</v>
+        <v>-0.2983143754037149</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.07209786901798443</v>
+        <v>-0.0716047211948673</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06739133320962433</v>
+        <v>-0.07678306551704366</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.285523023450339</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.887325109138498</v>
+        <v>-6.8873251091385</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-14.64039907610617</v>
@@ -1734,7 +1734,7 @@
         <v>1.39393214744285</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.8142639330594836</v>
+        <v>0.8142639330594781</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-13.03024440363535</v>
+        <v>-12.95275689978921</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.794725248460301</v>
+        <v>-8.293235875302853</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-14.32470713555218</v>
+        <v>-13.33096129905515</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-18.68285377026737</v>
+        <v>-18.56413262435845</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.49550053214516</v>
+        <v>-1.87608686206525</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3999638081233017</v>
+        <v>-0.510999215681041</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-16.86972679375175</v>
+        <v>-16.52592929861347</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.190827422354806</v>
+        <v>-2.286489083706056</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.169116344970529</v>
+        <v>-3.497864326438108</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.8111640874635919</v>
+        <v>-1.32219270459904</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.700168045963904</v>
+        <v>4.630174713607289</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.314716970743185</v>
+        <v>3.739856371566345</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-10.29512896878844</v>
+        <v>-10.51541986593838</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.845173461744744</v>
+        <v>7.025388793260758</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.486272662590512</v>
+        <v>8.118374693054824</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-10.06539295096895</v>
+        <v>-9.718337124046128</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.977163902920526</v>
+        <v>5.072485400929154</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.114420892322315</v>
+        <v>4.744000050150923</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.03490984618128659</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.02039254830747882</v>
+        <v>0.02039254830747868</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6050602778260823</v>
+        <v>-0.6041033603738415</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3409822567644908</v>
+        <v>-0.36560716059473</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6806336771846714</v>
+        <v>-0.6490600301963519</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3945133178481014</v>
+        <v>-0.39181246944385</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03208911334680407</v>
+        <v>-0.03992945025462405</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.008297446028270128</v>
+        <v>-0.01037328679267122</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4059846599145642</v>
+        <v>-0.3961736976672043</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.05289697565905344</v>
+        <v>-0.05507097994784011</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07558675669978568</v>
+        <v>-0.08491572786793594</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.05230186064207139</v>
+        <v>-0.07160762448788231</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3463577413294083</v>
+        <v>0.3059980485574214</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2324385654001688</v>
+        <v>0.2273263378977065</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.2379294446086835</v>
+        <v>-0.240659885708036</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1602998254961606</v>
+        <v>0.1642446563844983</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2028827078395852</v>
+        <v>0.1889312306143813</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2611621467218754</v>
+        <v>-0.2560901432151975</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1329337242851994</v>
+        <v>0.1318110479811606</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1334851352260865</v>
+        <v>0.1230373771655592</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-20.84922076951358</v>
+        <v>-20.6670408682078</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.460604861943098</v>
+        <v>-9.553458570107054</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.0999453728137</v>
+        <v>-10.03328826006722</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-17.45814918848175</v>
+        <v>-17.56512402769172</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.833115425135729</v>
+        <v>-5.885480462405996</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.768711468267934</v>
+        <v>-7.874530768455233</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-18.53679866749079</v>
+        <v>-18.44223400206668</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.849965454779279</v>
+        <v>-6.990915564196798</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.19422613368905</v>
+        <v>-8.080926588213085</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-16.18816979458392</v>
+        <v>-16.03821542747923</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.519577893071918</v>
+        <v>-4.490875992145321</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.00768299537508</v>
+        <v>-4.849061953016317</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-12.88843806325634</v>
+        <v>-12.96012228622087</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.9712215954695206</v>
+        <v>-0.9617370736080263</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.260003478227675</v>
+        <v>-3.295906492397628</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-15.08899535642717</v>
+        <v>-15.21936659799753</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.590416319771567</v>
+        <v>-3.544462903368941</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-4.78750098278288</v>
+        <v>-4.862789465710891</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4934965266662298</v>
+        <v>-0.4924054311376691</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2235400828433014</v>
+        <v>-0.2252949324557326</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2394801537771286</v>
+        <v>-0.2378739772687536</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3708521335596092</v>
+        <v>-0.371649350772069</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1238066374814509</v>
+        <v>-0.1253668511188414</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1650038400103346</v>
+        <v>-0.1659324011458827</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4156416092025353</v>
+        <v>-0.4161165019448216</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.15524380910729</v>
+        <v>-0.1580223812353719</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1829185458237368</v>
+        <v>-0.1820655615524032</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.4048057402504673</v>
+        <v>-0.4049264877565413</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1150560880001398</v>
+        <v>-0.113493141477016</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1260935081480893</v>
+        <v>-0.1215671318849623</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.2856577402878431</v>
+        <v>-0.2876166527905723</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.02197610303393259</v>
+        <v>-0.02194654806433471</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.07490763881711676</v>
+        <v>-0.07401277017700944</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.3504140806192157</v>
+        <v>-0.3549604411514223</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.08405624387417167</v>
+        <v>-0.08254394111087952</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1108052848782384</v>
+        <v>-0.1138360549841247</v>
       </c>
     </row>
     <row r="46">
